--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Sooty Albatross_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Sooty Albatross_Prince Edward Islands.xlsx
@@ -4278,13 +4278,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7B8682-7110-4E09-93BD-61A661AF5349}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE91C586-DD5F-4311-953C-2A316847BC60}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87B4C9F-4601-43CC-9ACA-BEF2F7F8F827}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C75564-54FF-4F74-BA57-ADF60E837EE0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C14F1CA-E465-403B-98D4-0EBC5EB1EEBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF908965-8047-4903-B864-B4A085DCF896}"/>
 </file>